--- a/Model_Performance/best_evals/vd_154.xlsx
+++ b/Model_Performance/best_evals/vd_154.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="paste_data_here" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="105">
   <si>
     <t xml:space="preserve">smiles</t>
   </si>
@@ -306,6 +306,9 @@
     <t xml:space="preserve">MAE</t>
   </si>
   <si>
+    <t xml:space="preserve">MAE / Scale</t>
+  </si>
+  <si>
     <t xml:space="preserve">T1_true</t>
   </si>
   <si>
@@ -475,7 +478,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -550,6 +553,10 @@
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1097,11 +1104,11 @@
           </c:marker>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="85341016"/>
-        <c:axId val="52165286"/>
+        <c:axId val="30614688"/>
+        <c:axId val="22978710"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85341016"/>
+        <c:axId val="30614688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,12 +1150,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52165286"/>
+        <c:crossAx val="22978710"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52165286"/>
+        <c:axId val="22978710"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1197,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85341016"/>
+        <c:crossAx val="30614688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1674,11 +1681,11 @@
           </c:marker>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="53448925"/>
-        <c:axId val="7928230"/>
+        <c:axId val="96420945"/>
+        <c:axId val="65777937"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53448925"/>
+        <c:axId val="96420945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,12 +1727,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7928230"/>
+        <c:crossAx val="65777937"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7928230"/>
+        <c:axId val="65777937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1774,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53448925"/>
+        <c:crossAx val="96420945"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2251,11 +2258,11 @@
           </c:marker>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47878601"/>
-        <c:axId val="49371402"/>
+        <c:axId val="17035455"/>
+        <c:axId val="19360684"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47878601"/>
+        <c:axId val="17035455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2297,12 +2304,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="49371402"/>
+        <c:crossAx val="19360684"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49371402"/>
+        <c:axId val="19360684"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2344,7 +2351,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47878601"/>
+        <c:crossAx val="17035455"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2828,11 +2835,11 @@
           </c:marker>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="17548886"/>
-        <c:axId val="65437966"/>
+        <c:axId val="68951373"/>
+        <c:axId val="74267375"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17548886"/>
+        <c:axId val="68951373"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,12 +2881,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65437966"/>
+        <c:crossAx val="74267375"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65437966"/>
+        <c:axId val="74267375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2921,7 +2928,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17548886"/>
+        <c:crossAx val="68951373"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3405,11 +3412,11 @@
           </c:marker>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="76950567"/>
-        <c:axId val="24738943"/>
+        <c:axId val="2893752"/>
+        <c:axId val="28955608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76950567"/>
+        <c:axId val="2893752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3451,12 +3458,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24738943"/>
+        <c:crossAx val="28955608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="24738943"/>
+        <c:axId val="28955608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3498,7 +3505,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="76950567"/>
+        <c:crossAx val="2893752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3537,9 +3544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>722520</xdr:colOff>
+      <xdr:colOff>722160</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>176400</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3548,7 +3555,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="317520" y="1917720"/>
-        <a:ext cx="5157360" cy="2741760"/>
+        <a:ext cx="5157000" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3567,9 +3574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>481320</xdr:colOff>
+      <xdr:colOff>480960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>201960</xdr:rowOff>
+      <xdr:rowOff>201600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3578,7 +3585,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="5514480" y="1942920"/>
-        <a:ext cx="5206680" cy="2742120"/>
+        <a:ext cx="5206320" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3597,9 +3604,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>227160</xdr:colOff>
+      <xdr:colOff>226800</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3608,7 +3615,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10849320" y="1930320"/>
-        <a:ext cx="5123160" cy="2741760"/>
+        <a:ext cx="5122800" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3627,9 +3634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>595800</xdr:colOff>
+      <xdr:colOff>595440</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>201960</xdr:rowOff>
+      <xdr:rowOff>201600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3638,7 +3645,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2127960" y="4788000"/>
-        <a:ext cx="5596200" cy="2741760"/>
+        <a:ext cx="5595840" cy="2741400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3657,9 +3664,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>916200</xdr:colOff>
+      <xdr:colOff>915840</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3668,7 +3675,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7801560" y="4737240"/>
-        <a:ext cx="5189760" cy="2741400"/>
+        <a:ext cx="5189400" cy="2741040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3875,7 +3882,7 @@
   </sheetPr>
   <dimension ref="A1:AD1046367"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A249" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A194" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G222" activeCellId="0" sqref="G222"/>
     </sheetView>
   </sheetViews>
@@ -16221,10 +16228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16341,6 +16348,35 @@
       <c r="G4" s="18" t="n">
         <f aca="false">AVERAGE(Table1[[#This Row],[T1]:[T5]])</f>
         <v>0.259676460769715</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">B4/(MAX(paste_data_here!G2:G56)-MIN(paste_data_here!G2:G56))</f>
+        <v>0.0540031371113143</v>
+      </c>
+      <c r="C5" s="19" t="n">
+        <f aca="false">C4/(MAX(paste_data_here!G57:G111)-MIN(paste_data_here!G57:G111))</f>
+        <v>0.0605369067882238</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">D4/(MAX(paste_data_here!G112:G166)-MIN(paste_data_here!G112:G166))</f>
+        <v>0.0518017549217567</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <f aca="false">E4/(MAX(paste_data_here!G167:G221) - MIN(paste_data_here!G167:G221))</f>
+        <v>0.0548332982124028</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">F4/(MAX(paste_data_here!G222:G276)-MIN(paste_data_here!G222:G276))</f>
+        <v>0.0594413599015301</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <f aca="false">AVERAGE(B5:F5)</f>
+        <v>0.0561232913870455</v>
       </c>
     </row>
   </sheetData>
@@ -16365,42 +16401,42 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.34375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>103</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16413,25 +16449,25 @@
       <c r="C2" s="7" t="n">
         <v>-0.549913</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>-0.599169000607915</v>
       </c>
       <c r="E2" s="9" t="n">
         <v>-0.2718087</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>-0.329948358561071</v>
       </c>
       <c r="G2" s="11" t="n">
         <v>-0.0812101</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>-0.144373824073718</v>
       </c>
       <c r="I2" s="13" t="n">
         <v>0.22474227</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>0.146597479502979</v>
       </c>
     </row>
@@ -16445,25 +16481,25 @@
       <c r="C3" s="7" t="n">
         <v>0.50077529</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.480694187595944</v>
       </c>
       <c r="E3" s="9" t="n">
         <v>0.67294447</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.646940648648873</v>
       </c>
       <c r="G3" s="11" t="n">
         <v>0.86331181</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <v>0.823979313982548</v>
       </c>
       <c r="I3" s="13" t="n">
         <v>1.07636668</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <v>1.01289148679203</v>
       </c>
     </row>
@@ -16477,25 +16513,25 @@
       <c r="C4" s="7" t="n">
         <v>0.24294618</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.363058745821221</v>
       </c>
       <c r="E4" s="9" t="n">
         <v>0.45742485</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.519517570149365</v>
       </c>
       <c r="G4" s="11" t="n">
         <v>0.70803579</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="1" t="n">
         <v>0.769689561769609</v>
       </c>
       <c r="I4" s="13" t="n">
         <v>0.97455964</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="1" t="n">
         <v>0.993811639147576</v>
       </c>
     </row>
@@ -16509,25 +16545,25 @@
       <c r="C5" s="7" t="n">
         <v>-0.9431482</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>-0.910731034407751</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>-0.8928184</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>-0.873445380396575</v>
       </c>
       <c r="G5" s="11" t="n">
         <v>-0.8278221</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="1" t="n">
         <v>-0.830163891366808</v>
       </c>
       <c r="I5" s="13" t="n">
         <v>-0.5642264</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="1" t="n">
         <v>-0.627460819243042</v>
       </c>
     </row>
@@ -16541,25 +16577,25 @@
       <c r="C6" s="7" t="n">
         <v>0.66217238</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.629395914991783</v>
       </c>
       <c r="E6" s="9" t="n">
         <v>0.76546784</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>0.648487475459322</v>
       </c>
       <c r="G6" s="11" t="n">
         <v>0.96546178</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="1" t="n">
         <v>0.82051370722838</v>
       </c>
       <c r="I6" s="13" t="n">
         <v>1.07534366</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="1" t="n">
         <v>0.910785398620959</v>
       </c>
     </row>
@@ -16573,25 +16609,25 @@
       <c r="C7" s="7" t="n">
         <v>0.3400373</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.515475374446097</v>
       </c>
       <c r="E7" s="9" t="n">
         <v>0.53062825</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>0.677033140661991</v>
       </c>
       <c r="G7" s="11" t="n">
         <v>0.73716407</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="1" t="n">
         <v>0.848359249856432</v>
       </c>
       <c r="I7" s="13" t="n">
         <v>0.94195848</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="1" t="n">
         <v>1.02808204683963</v>
       </c>
     </row>
@@ -16605,25 +16641,25 @@
       <c r="C8" s="7" t="n">
         <v>-0.731888</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>-0.580840801594423</v>
       </c>
       <c r="E8" s="9" t="n">
         <v>-0.6208265</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>-0.464344721898483</v>
       </c>
       <c r="G8" s="11" t="n">
         <v>-0.5099926</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="1" t="n">
         <v>-0.34016357902163</v>
       </c>
       <c r="I8" s="13" t="n">
         <v>-0.386398</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="1" t="n">
         <v>-0.207509886814937</v>
       </c>
     </row>
@@ -16637,25 +16673,25 @@
       <c r="C9" s="7" t="n">
         <v>-0.6036722</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>-0.666378461315176</v>
       </c>
       <c r="E9" s="9" t="n">
         <v>-0.248205</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>-0.229707641534179</v>
       </c>
       <c r="G9" s="11" t="n">
         <v>0.04430393</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="1" t="n">
         <v>0.11281271224595</v>
       </c>
       <c r="I9" s="13" t="n">
         <v>0.216884</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="1" t="n">
         <v>0.308009622700829</v>
       </c>
     </row>
@@ -16669,25 +16705,25 @@
       <c r="C10" s="7" t="n">
         <v>-0.8209806</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>-0.968236591651336</v>
       </c>
       <c r="E10" s="9" t="n">
         <v>-0.6753073</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>-0.861945404322066</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>-0.5091603</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>-0.737355530167305</v>
       </c>
       <c r="I10" s="13" t="n">
         <v>-0.4094731</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>-0.664879387923556</v>
       </c>
     </row>
@@ -16701,25 +16737,25 @@
       <c r="C11" s="7" t="n">
         <v>0.19614228</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>0.31290062745537</v>
       </c>
       <c r="E11" s="9" t="n">
         <v>0.34074879</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>0.447788177602415</v>
       </c>
       <c r="G11" s="11" t="n">
         <v>0.60004456</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="1" t="n">
         <v>0.650085126737491</v>
       </c>
       <c r="I11" s="13" t="n">
         <v>0.61247928</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>0.688639660496688</v>
       </c>
     </row>
@@ -16733,25 +16769,25 @@
       <c r="C12" s="7" t="n">
         <v>-0.3322611</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>-0.371653831134086</v>
       </c>
       <c r="E12" s="9" t="n">
         <v>0.90421815</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>0.685604150531559</v>
       </c>
       <c r="G12" s="11" t="n">
         <v>1.71802322</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="1" t="n">
         <v>1.3695608445563</v>
       </c>
       <c r="I12" s="13" t="n">
         <v>2.06826684</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="1" t="n">
         <v>1.65958384729828</v>
       </c>
     </row>
@@ -16765,25 +16801,25 @@
       <c r="C13" s="7" t="n">
         <v>-0.6635884</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>-0.850640350447788</v>
       </c>
       <c r="E13" s="9" t="n">
         <v>-0.5533852</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>-0.750779281496507</v>
       </c>
       <c r="G13" s="11" t="n">
         <v>-0.4079682</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="1" t="n">
         <v>-0.644104957221433</v>
       </c>
       <c r="I13" s="13" t="n">
         <v>-0.2587707</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="1" t="n">
         <v>-0.529895951811882</v>
       </c>
     </row>
@@ -16797,25 +16833,25 @@
       <c r="C14" s="7" t="n">
         <v>-0.3566749</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>-0.45760777653024</v>
       </c>
       <c r="E14" s="9" t="n">
         <v>-0.2555376</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>-0.376759379985656</v>
       </c>
       <c r="G14" s="11" t="n">
         <v>-0.0508723</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="1" t="n">
         <v>-0.210327609823123</v>
       </c>
       <c r="I14" s="13" t="n">
         <v>0.45679174</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="1" t="n">
         <v>0.181437235225158</v>
       </c>
     </row>
@@ -16829,25 +16865,25 @@
       <c r="C15" s="7" t="n">
         <v>0.06663008</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>-0.0439575790025679</v>
       </c>
       <c r="E15" s="9" t="n">
         <v>0.221382</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>0.130697495315233</v>
       </c>
       <c r="G15" s="11" t="n">
         <v>0.39319008</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="1" t="n">
         <v>0.317268821155473</v>
       </c>
       <c r="I15" s="13" t="n">
         <v>0.80361463</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="1" t="n">
         <v>0.731392965653552</v>
       </c>
     </row>
@@ -16861,25 +16897,25 @@
       <c r="C16" s="7" t="n">
         <v>1.88255949</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>2.0534286253962</v>
       </c>
       <c r="E16" s="9" t="n">
         <v>2.6438103</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>2.78418102780817</v>
       </c>
       <c r="G16" s="11" t="n">
         <v>3.08478199</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="1" t="n">
         <v>3.18571423899856</v>
       </c>
       <c r="I16" s="13" t="n">
         <v>3.57841147</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="1" t="n">
         <v>3.61464299399347</v>
       </c>
     </row>
@@ -16893,25 +16929,25 @@
       <c r="C17" s="7" t="n">
         <v>1.11001371</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>0.663609355416836</v>
       </c>
       <c r="E17" s="9" t="n">
         <v>1.33760294</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>0.818594497549382</v>
       </c>
       <c r="G17" s="11" t="n">
         <v>1.88167634</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="1" t="n">
         <v>1.16083448680664</v>
       </c>
       <c r="I17" s="13" t="n">
         <v>2.20763685</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="1" t="n">
         <v>1.35040950718322</v>
       </c>
     </row>
@@ -16925,25 +16961,25 @@
       <c r="C18" s="7" t="n">
         <v>-0.7903191</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>-0.655681919115198</v>
       </c>
       <c r="E18" s="9" t="n">
         <v>-0.731888</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>-0.548959550977457</v>
       </c>
       <c r="G18" s="11" t="n">
         <v>-0.6273594</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="1" t="n">
         <v>-0.435196876040587</v>
       </c>
       <c r="I18" s="13" t="n">
         <v>-0.4975804</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="1" t="n">
         <v>-0.313672476151219</v>
       </c>
     </row>
@@ -16957,25 +16993,25 @@
       <c r="C19" s="7" t="n">
         <v>-0.9405834</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>-0.820018776017501</v>
       </c>
       <c r="E19" s="9" t="n">
         <v>-0.5833963</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>-0.277327734243625</v>
       </c>
       <c r="G19" s="11" t="n">
         <v>0.00409162</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="1" t="n">
         <v>0.557713550087182</v>
       </c>
       <c r="I19" s="13" t="n">
         <v>1.33636855</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="1" t="n">
         <v>2.02662474341094</v>
       </c>
     </row>
@@ -16989,25 +17025,25 @@
       <c r="C20" s="7" t="n">
         <v>-0.759287</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>-0.559248204612532</v>
       </c>
       <c r="E20" s="9" t="n">
         <v>-0.572701</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>-0.330303126827374</v>
       </c>
       <c r="G20" s="11" t="n">
         <v>-0.3696155</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="1" t="n">
         <v>-0.0754254162850021</v>
       </c>
       <c r="I20" s="13" t="n">
         <v>0.31481074</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="1" t="n">
         <v>0.7088998570149</v>
       </c>
     </row>
@@ -17021,25 +17057,25 @@
       <c r="C21" s="7" t="n">
         <v>-0.4525567</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>-0.415066202894472</v>
       </c>
       <c r="E21" s="9" t="n">
         <v>0.51641</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>0.397595744356674</v>
       </c>
       <c r="G21" s="11" t="n">
         <v>1.12037378</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="1" t="n">
         <v>0.809352730676205</v>
       </c>
       <c r="I21" s="13" t="n">
         <v>1.67859077</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="1" t="n">
         <v>1.15126121789244</v>
       </c>
     </row>
@@ -17053,25 +17089,25 @@
       <c r="C22" s="7" t="n">
         <v>-0.4179426</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>0.264880488784628</v>
       </c>
       <c r="E22" s="9" t="n">
         <v>0.06700423</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>1.1461965004942</v>
       </c>
       <c r="G22" s="11" t="n">
         <v>0.47772375</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="1" t="n">
         <v>1.83749222818732</v>
       </c>
       <c r="I22" s="13" t="n">
         <v>0.72265744</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="1" t="n">
         <v>2.21951174150079</v>
       </c>
     </row>
@@ -17085,25 +17121,25 @@
       <c r="C23" s="7" t="n">
         <v>-0.2243943</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>-0.0723464598858408</v>
       </c>
       <c r="E23" s="9" t="n">
         <v>0.48489224</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>0.472497244296666</v>
       </c>
       <c r="G23" s="11" t="n">
         <v>0.88706787</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="1" t="n">
         <v>0.733203649444904</v>
       </c>
       <c r="I23" s="13" t="n">
         <v>1.19301296</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="1" t="n">
         <v>0.923237752229379</v>
       </c>
     </row>
@@ -17117,25 +17153,25 @@
       <c r="C24" s="7" t="n">
         <v>-1.260896</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>-1.23241114757114</v>
       </c>
       <c r="E24" s="9" t="n">
         <v>-1.0152827</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>-1.03504554024684</v>
       </c>
       <c r="G24" s="11" t="n">
         <v>-0.8603831</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="1" t="n">
         <v>-0.997845244955543</v>
       </c>
       <c r="I24" s="13" t="n">
         <v>-0.5252627</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="1" t="n">
         <v>-0.634330135783915</v>
       </c>
     </row>
@@ -17149,25 +17185,25 @@
       <c r="C25" s="7" t="n">
         <v>-0.7192858</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>-0.535352251278216</v>
       </c>
       <c r="E25" s="9" t="n">
         <v>-0.6991653</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>-0.474045620999408</v>
       </c>
       <c r="G25" s="11" t="n">
         <v>-0.604587</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="1" t="n">
         <v>-0.410634056794984</v>
       </c>
       <c r="I25" s="13" t="n">
         <v>-0.5313685</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="1" t="n">
         <v>-0.345165684535864</v>
       </c>
     </row>
@@ -17181,25 +17217,25 @@
       <c r="C26" s="7" t="n">
         <v>1.70311039</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>1.95939606826391</v>
       </c>
       <c r="E26" s="9" t="n">
         <v>2.41947884</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>2.74345747492966</v>
       </c>
       <c r="G26" s="11" t="n">
         <v>3.17930305</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>3.45790096070864</v>
       </c>
       <c r="I26" s="13" t="n">
         <v>4.31147004</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="1" t="n">
         <v>4.37173312814447</v>
       </c>
     </row>
@@ -17213,25 +17249,25 @@
       <c r="C27" s="7" t="n">
         <v>-1.0469691</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>-0.87517114075548</v>
       </c>
       <c r="E27" s="9" t="n">
         <v>-0.9314044</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>-0.765682850991832</v>
       </c>
       <c r="G27" s="11" t="n">
         <v>-0.8347107</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>-0.675423707348486</v>
       </c>
       <c r="I27" s="13" t="n">
         <v>-0.3696155</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="1" t="n">
         <v>-0.233564349530923</v>
       </c>
     </row>
@@ -17245,25 +17281,25 @@
       <c r="C28" s="7" t="n">
         <v>-1.0512517</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>-1.08328585427824</v>
       </c>
       <c r="E28" s="9" t="n">
         <v>-0.6831969</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <v>-0.865700914935788</v>
       </c>
       <c r="G28" s="11" t="n">
         <v>-0.2361022</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="1" t="n">
         <v>-0.602996635272625</v>
       </c>
       <c r="I28" s="13" t="n">
         <v>0.40346311</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="1" t="n">
         <v>-0.25868674949142</v>
       </c>
     </row>
@@ -17277,25 +17313,25 @@
       <c r="C29" s="7" t="n">
         <v>-0.4736904</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>-0.211710220496328</v>
       </c>
       <c r="E29" s="9" t="n">
         <v>-0.0163327</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>0.316820071033356</v>
       </c>
       <c r="G29" s="11" t="n">
         <v>0.38594244</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="1" t="n">
         <v>0.640278563714361</v>
       </c>
       <c r="I29" s="13" t="n">
         <v>0.39978233</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="1" t="n">
         <v>0.721634528633373</v>
       </c>
     </row>
@@ -17309,25 +17345,25 @@
       <c r="C30" s="7" t="n">
         <v>-0.5344355</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>-0.439178070863623</v>
       </c>
       <c r="E30" s="9" t="n">
         <v>-0.1278334</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <v>0.10168561067377</v>
       </c>
       <c r="G30" s="11" t="n">
         <v>0.11778304</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="1" t="n">
         <v>0.420821465639359</v>
       </c>
       <c r="I30" s="13" t="n">
         <v>0.2569651</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="1" t="n">
         <v>0.595202599922467</v>
       </c>
     </row>
@@ -17341,25 +17377,25 @@
       <c r="C31" s="7" t="n">
         <v>-0.0171462</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>0.00857132182940192</v>
       </c>
       <c r="E31" s="9" t="n">
         <v>0.09893995</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>0.136434583446981</v>
       </c>
       <c r="G31" s="11" t="n">
         <v>0.15956457</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="1" t="n">
         <v>0.201821900057365</v>
       </c>
       <c r="I31" s="13" t="n">
         <v>0.21913553</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="1" t="n">
         <v>0.264431458737169</v>
       </c>
     </row>
@@ -17373,25 +17409,25 @@
       <c r="C32" s="7" t="n">
         <v>-1.1799308</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>-0.906936203863751</v>
       </c>
       <c r="E32" s="9" t="n">
         <v>-1.1020181</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F32" s="1" t="n">
         <v>-0.836060734769547</v>
       </c>
       <c r="G32" s="11" t="n">
         <v>-0.819164</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="1" t="n">
         <v>-0.585762432624457</v>
       </c>
       <c r="I32" s="13" t="n">
         <v>-0.5559973</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="1" t="n">
         <v>-0.350549347326499</v>
       </c>
     </row>
@@ -17405,25 +17441,25 @@
       <c r="C33" s="7" t="n">
         <v>-0.878032</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>-0.740356985974336</v>
       </c>
       <c r="E33" s="9" t="n">
         <v>-0.6971552</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="1" t="n">
         <v>-0.595050359998067</v>
       </c>
       <c r="G33" s="11" t="n">
         <v>-0.5317088</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="1" t="n">
         <v>-0.418674062351287</v>
       </c>
       <c r="I33" s="13" t="n">
         <v>0.67370949</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="1" t="n">
         <v>0.65236006789597</v>
       </c>
     </row>
@@ -17437,25 +17473,25 @@
       <c r="C34" s="7" t="n">
         <v>-0.9339457</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>-0.582960427596686</v>
       </c>
       <c r="E34" s="9" t="n">
         <v>-0.7765288</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <v>-0.54323263744682</v>
       </c>
       <c r="G34" s="11" t="n">
         <v>-0.7113112</v>
       </c>
-      <c r="H34" s="0" t="n">
+      <c r="H34" s="1" t="n">
         <v>-0.529050355001297</v>
       </c>
       <c r="I34" s="13" t="n">
         <v>-0.5887872</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="1" t="n">
         <v>-0.499140213780047</v>
       </c>
     </row>
@@ -17469,25 +17505,25 @@
       <c r="C35" s="7" t="n">
         <v>-1.3371233</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>-1.37780460052632</v>
       </c>
       <c r="E35" s="9" t="n">
         <v>-1.0924314</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <v>-1.06239776126124</v>
       </c>
       <c r="G35" s="11" t="n">
         <v>-0.5395681</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="1" t="n">
         <v>-0.443284378114562</v>
       </c>
       <c r="I35" s="13" t="n">
         <v>-0.2319321</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="1" t="n">
         <v>-0.118308304147399</v>
       </c>
     </row>
@@ -17501,25 +17537,25 @@
       <c r="C36" s="7" t="n">
         <v>-0.1457197</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>0.43766516894403</v>
       </c>
       <c r="E36" s="9" t="n">
         <v>-0.0449974</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36" s="1" t="n">
         <v>0.556259740963282</v>
       </c>
       <c r="G36" s="11" t="n">
         <v>-0.004008</v>
       </c>
-      <c r="H36" s="0" t="n">
+      <c r="H36" s="1" t="n">
         <v>0.597129734942467</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>1.01523068</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="1" t="n">
         <v>1.89999827282571</v>
       </c>
     </row>
@@ -17533,25 +17569,25 @@
       <c r="C37" s="7" t="n">
         <v>-0.5430045</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>-0.289724129188433</v>
       </c>
       <c r="E37" s="9" t="n">
         <v>-0.4246479</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37" s="1" t="n">
         <v>-0.156420694892387</v>
       </c>
       <c r="G37" s="11" t="n">
         <v>-0.3609699</v>
       </c>
-      <c r="H37" s="0" t="n">
+      <c r="H37" s="1" t="n">
         <v>-0.0560886296029397</v>
       </c>
       <c r="I37" s="13" t="n">
         <v>-0.2957142</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="1" t="n">
         <v>-5.88020199982708E-005</v>
       </c>
     </row>
@@ -17565,25 +17601,25 @@
       <c r="C38" s="7" t="n">
         <v>-0.3609699</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>-0.259167916200928</v>
       </c>
       <c r="E38" s="9" t="n">
         <v>-0.2281561</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <v>-0.147217929793086</v>
       </c>
       <c r="G38" s="11" t="n">
         <v>-0.0758017</v>
       </c>
-      <c r="H38" s="0" t="n">
+      <c r="H38" s="1" t="n">
         <v>-0.0278827788295591</v>
       </c>
       <c r="I38" s="13" t="n">
         <v>0.08250122</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38" s="1" t="n">
         <v>0.0995942923152378</v>
       </c>
     </row>
@@ -17597,25 +17633,25 @@
       <c r="C39" s="7" t="n">
         <v>-0.1685725</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>1.0809559102168</v>
       </c>
       <c r="E39" s="9" t="n">
         <v>-0.1165113</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <v>1.14961745968127</v>
       </c>
       <c r="G39" s="11" t="n">
         <v>0.38865799</v>
       </c>
-      <c r="H39" s="0" t="n">
+      <c r="H39" s="1" t="n">
         <v>1.82275362304627</v>
       </c>
       <c r="I39" s="13" t="n">
         <v>1.21197074</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39" s="1" t="n">
         <v>2.90611775826116</v>
       </c>
     </row>
@@ -17629,25 +17665,25 @@
       <c r="C40" s="7" t="n">
         <v>-0.3332375</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>0.436928662230425</v>
       </c>
       <c r="E40" s="9" t="n">
         <v>-0.2342045</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <v>0.578543054956871</v>
       </c>
       <c r="G40" s="11" t="n">
         <v>-0.099268</v>
       </c>
-      <c r="H40" s="0" t="n">
+      <c r="H40" s="1" t="n">
         <v>0.729988473577874</v>
       </c>
       <c r="I40" s="13" t="n">
         <v>0.0651321</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40" s="1" t="n">
         <v>0.892321402083158</v>
       </c>
     </row>
@@ -17661,25 +17697,25 @@
       <c r="C41" s="7" t="n">
         <v>-1.4175787</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>-1.6380627737153</v>
       </c>
       <c r="E41" s="9" t="n">
         <v>-1.329536</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <v>-1.54165467040347</v>
       </c>
       <c r="G41" s="11" t="n">
         <v>-1.0213735</v>
       </c>
-      <c r="H41" s="0" t="n">
+      <c r="H41" s="1" t="n">
         <v>-1.1937410326022</v>
       </c>
       <c r="I41" s="13" t="n">
         <v>-0.9095634</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41" s="1" t="n">
         <v>-1.0694547480512</v>
       </c>
     </row>
@@ -17693,25 +17729,25 @@
       <c r="C42" s="7" t="n">
         <v>-0.2218943</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>-0.0421358396695267</v>
       </c>
       <c r="E42" s="9" t="n">
         <v>1.18784342</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F42" s="1" t="n">
         <v>0.949918208239747</v>
       </c>
       <c r="G42" s="11" t="n">
         <v>1.24126859</v>
       </c>
-      <c r="H42" s="0" t="n">
+      <c r="H42" s="1" t="n">
         <v>0.957455904124549</v>
       </c>
       <c r="I42" s="13" t="n">
         <v>1.87793717</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42" s="1" t="n">
         <v>1.31482453778212</v>
       </c>
     </row>
@@ -17725,25 +17761,25 @@
       <c r="C43" s="7" t="n">
         <v>0.47499117</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>0.635119872021694</v>
       </c>
       <c r="E43" s="9" t="n">
         <v>0.57216528</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F43" s="1" t="n">
         <v>0.725783706208124</v>
       </c>
       <c r="G43" s="11" t="n">
         <v>0.68617292</v>
       </c>
-      <c r="H43" s="0" t="n">
+      <c r="H43" s="1" t="n">
         <v>0.815550982961627</v>
       </c>
       <c r="I43" s="13" t="n">
         <v>0.74678273</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43" s="1" t="n">
         <v>0.86139552499855</v>
       </c>
     </row>
@@ -17757,25 +17793,25 @@
       <c r="C44" s="7" t="n">
         <v>0.3569749</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>-0.026013002076948</v>
       </c>
       <c r="E44" s="9" t="n">
         <v>0.55790003</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <v>0.0750919914912368</v>
       </c>
       <c r="G44" s="11" t="n">
         <v>0.78024189</v>
       </c>
-      <c r="H44" s="0" t="n">
+      <c r="H44" s="1" t="n">
         <v>0.182005303101886</v>
       </c>
       <c r="I44" s="13" t="n">
         <v>1.02854741</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="1" t="n">
         <v>0.295241509473932</v>
       </c>
     </row>
@@ -17789,25 +17825,25 @@
       <c r="C45" s="7" t="n">
         <v>-1.1026203</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>-1.21022882500254</v>
       </c>
       <c r="E45" s="9" t="n">
         <v>-0.994793</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <v>-1.02898012566945</v>
       </c>
       <c r="G45" s="11" t="n">
         <v>-0.8715564</v>
       </c>
-      <c r="H45" s="0" t="n">
+      <c r="H45" s="1" t="n">
         <v>-0.824362009534241</v>
       </c>
       <c r="I45" s="13" t="n">
         <v>-0.4372654</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="1" t="n">
         <v>-0.114781301826638</v>
       </c>
     </row>
@@ -17821,25 +17857,25 @@
       <c r="C46" s="7" t="n">
         <v>0.68913916</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>0.539070552835125</v>
       </c>
       <c r="E46" s="9" t="n">
         <v>1.1016078</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <v>0.842161572392864</v>
       </c>
       <c r="G46" s="11" t="n">
         <v>1.50563174</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="1" t="n">
         <v>1.11834071178194</v>
       </c>
       <c r="I46" s="13" t="n">
         <v>2.07956653</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46" s="1" t="n">
         <v>1.47159661875309</v>
       </c>
     </row>
@@ -17853,25 +17889,25 @@
       <c r="C47" s="7" t="n">
         <v>-1.2009773</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>-1.28749103478268</v>
       </c>
       <c r="E47" s="9" t="n">
         <v>-1.0086802</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F47" s="1" t="n">
         <v>-1.06726044218408</v>
       </c>
       <c r="G47" s="11" t="n">
         <v>-0.9016485</v>
       </c>
-      <c r="H47" s="0" t="n">
+      <c r="H47" s="1" t="n">
         <v>-0.947790566521419</v>
       </c>
       <c r="I47" s="13" t="n">
         <v>-0.4323226</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47" s="1" t="n">
         <v>-0.393609687686081</v>
       </c>
     </row>
@@ -17885,25 +17921,25 @@
       <c r="C48" s="7" t="n">
         <v>2.09062873</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>1.54698017001812</v>
       </c>
       <c r="E48" s="9" t="n">
         <v>2.20937271</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F48" s="1" t="n">
         <v>1.69963494969347</v>
       </c>
       <c r="G48" s="11" t="n">
         <v>2.60933423</v>
       </c>
-      <c r="H48" s="0" t="n">
+      <c r="H48" s="1" t="n">
         <v>2.18509569271104</v>
       </c>
       <c r="I48" s="13" t="n">
         <v>3.09013295</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48" s="1" t="n">
         <v>2.71632997160196</v>
       </c>
     </row>
@@ -17917,25 +17953,25 @@
       <c r="C49" s="7" t="n">
         <v>0.70803579</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>0.737012380817653</v>
       </c>
       <c r="E49" s="9" t="n">
         <v>0.8092399</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F49" s="1" t="n">
         <v>0.858939624887901</v>
       </c>
       <c r="G49" s="11" t="n">
         <v>0.92068108</v>
       </c>
-      <c r="H49" s="0" t="n">
+      <c r="H49" s="1" t="n">
         <v>0.984955864606944</v>
       </c>
       <c r="I49" s="13" t="n">
         <v>1.04130092</v>
       </c>
-      <c r="J49" s="0" t="n">
+      <c r="J49" s="1" t="n">
         <v>1.11527295323124</v>
       </c>
     </row>
@@ -17949,25 +17985,25 @@
       <c r="C50" s="7" t="n">
         <v>-1.1251616</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>-1.17557129143408</v>
       </c>
       <c r="E50" s="9" t="n">
         <v>-1.001032</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F50" s="1" t="n">
         <v>-1.04923103672688</v>
       </c>
       <c r="G50" s="11" t="n">
         <v>-0.9485557</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50" s="1" t="n">
         <v>-0.992019031852721</v>
       </c>
       <c r="I50" s="13" t="n">
         <v>-0.3078848</v>
       </c>
-      <c r="J50" s="0" t="n">
+      <c r="J50" s="1" t="n">
         <v>-0.291091546863672</v>
       </c>
     </row>
@@ -17981,25 +18017,25 @@
       <c r="C51" s="7" t="n">
         <v>-0.3139302</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>-0.412507921732023</v>
       </c>
       <c r="E51" s="9" t="n">
         <v>-0.2079594</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F51" s="1" t="n">
         <v>-0.345497614889441</v>
       </c>
       <c r="G51" s="11" t="n">
         <v>0.24255395</v>
       </c>
-      <c r="H51" s="0" t="n">
+      <c r="H51" s="1" t="n">
         <v>-0.0808435295716324</v>
       </c>
       <c r="I51" s="13" t="n">
         <v>0.67427013</v>
       </c>
-      <c r="J51" s="0" t="n">
+      <c r="J51" s="1" t="n">
         <v>0.130484302795774</v>
       </c>
     </row>
@@ -18013,25 +18049,25 @@
       <c r="C52" s="7" t="n">
         <v>1.80828877</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>1.35819753382389</v>
       </c>
       <c r="E52" s="9" t="n">
         <v>3.49650756</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F52" s="1" t="n">
         <v>2.71172011482516</v>
       </c>
       <c r="G52" s="11" t="n">
         <v>4.06044301</v>
       </c>
-      <c r="H52" s="0" t="n">
+      <c r="H52" s="1" t="n">
         <v>3.12266618662025</v>
       </c>
       <c r="I52" s="13" t="n">
         <v>4.61512052</v>
       </c>
-      <c r="J52" s="0" t="n">
+      <c r="J52" s="1" t="n">
         <v>3.57044681442088</v>
       </c>
     </row>
@@ -18045,25 +18081,25 @@
       <c r="C53" s="7" t="n">
         <v>-0.0777886</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <v>-0.289801556754254</v>
       </c>
       <c r="E53" s="9" t="n">
         <v>0.25161438</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F53" s="1" t="n">
         <v>0.0421973091438411</v>
       </c>
       <c r="G53" s="11" t="n">
         <v>0.65378246</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53" s="1" t="n">
         <v>0.440149291272202</v>
       </c>
       <c r="I53" s="13" t="n">
         <v>0.89195706</v>
       </c>
-      <c r="J53" s="0" t="n">
+      <c r="J53" s="1" t="n">
         <v>0.67026197335829</v>
       </c>
     </row>
@@ -18077,25 +18113,25 @@
       <c r="C54" s="7" t="n">
         <v>-0.4877604</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>-0.433322138879783</v>
       </c>
       <c r="E54" s="9" t="n">
         <v>-0.34814</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F54" s="1" t="n">
         <v>-0.354061636093742</v>
       </c>
       <c r="G54" s="11" t="n">
         <v>-0.2890163</v>
       </c>
-      <c r="H54" s="0" t="n">
+      <c r="H54" s="1" t="n">
         <v>-0.312368270285738</v>
       </c>
       <c r="I54" s="13" t="n">
         <v>-0.0502412</v>
       </c>
-      <c r="J54" s="0" t="n">
+      <c r="J54" s="1" t="n">
         <v>-0.178130593309258</v>
       </c>
     </row>
@@ -18109,25 +18145,25 @@
       <c r="C55" s="7" t="n">
         <v>-1.5431821</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <v>-0.496664286576911</v>
       </c>
       <c r="E55" s="9" t="n">
         <v>-1.3023209</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F55" s="1" t="n">
         <v>-0.29112436124876</v>
       </c>
       <c r="G55" s="11" t="n">
         <v>-1.2496678</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55" s="1" t="n">
         <v>-0.244682148216107</v>
       </c>
       <c r="I55" s="13" t="n">
         <v>-1.149169</v>
       </c>
-      <c r="J55" s="0" t="n">
+      <c r="J55" s="1" t="n">
         <v>-0.156926374221686</v>
       </c>
     </row>
